--- a/urcpsptt-tables.xlsx
+++ b/urcpsptt-tables.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\dell\Ying\Research\Projects_Ying\uRCPSPTT\uRCPSPTT2.0\Webpage\results-202209\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\dell\Ying\Research\Projects_Ying\uRCPSPTT\uRCPSPTT2.0\Webpage\urcpsptt-bnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ECD5EA-8700-4394-833A-A1CA8B1B64C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A30E25-423C-4267-923F-1191BFAD4FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="705" windowWidth="19140" windowHeight="14865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6048" yWindow="864" windowWidth="20532" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="urcpsptt" sheetId="1" r:id="rId1"/>
     <sheet name="rcpsp" sheetId="2" r:id="rId2"/>
-    <sheet name="response" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="87">
   <si>
     <t>Computational results on the RCPSP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,34 +314,6 @@
   <si>
     <t>BNBLB2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The results of initial upper bounds of the BNB(+GRASP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BNB(+GRASP) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRASP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ub</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNB(+GRASP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPLEX(+GRASP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP(+GRASP)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>j6025_5</t>
@@ -491,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,26 +554,19 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,6 +576,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -625,21 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,73 +878,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="13.125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.77734375" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F2" s="36" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="36"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="9" t="s">
         <v>65</v>
       </c>
@@ -1020,7 +975,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>30</v>
       </c>
@@ -1060,7 +1015,7 @@
         <v>2245.3000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <v>6</v>
       </c>
@@ -1097,7 +1052,7 @@
         <v>2402.0100000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
         <v>8</v>
       </c>
@@ -1134,7 +1089,7 @@
         <v>2403.62</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
         <v>10</v>
       </c>
@@ -1171,7 +1126,7 @@
         <v>2474.5</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1163,7 @@
         <v>2381.36</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="7"/>
@@ -1223,7 +1178,7 @@
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>60</v>
       </c>
@@ -1263,7 +1218,7 @@
         <v>3323.53</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="7">
         <v>6</v>
       </c>
@@ -1300,7 +1255,7 @@
         <v>3600.01</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="7">
         <v>8</v>
       </c>
@@ -1337,7 +1292,7 @@
         <v>3600.02</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
         <v>10</v>
       </c>
@@ -1374,7 +1329,7 @@
         <v>3600.02</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="25" t="s">
         <v>6</v>
       </c>
@@ -1411,7 +1366,7 @@
         <v>3530.89</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="7"/>
@@ -1426,7 +1381,7 @@
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>90</v>
       </c>
@@ -1466,7 +1421,7 @@
         <v>3600.02</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
         <v>6</v>
       </c>
@@ -1503,7 +1458,7 @@
         <v>3600.03</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C19" s="7">
         <v>8</v>
       </c>
@@ -1540,7 +1495,7 @@
         <v>3600.03</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
         <v>10</v>
       </c>
@@ -1577,7 +1532,7 @@
         <v>3600.03</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C21" s="25" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1569,7 @@
         <v>3600.03</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="7"/>
@@ -1629,7 +1584,7 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>120</v>
       </c>
@@ -1669,7 +1624,7 @@
         <v>3600.04</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
         <v>6</v>
       </c>
@@ -1706,7 +1661,7 @@
         <v>3600.05</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C25" s="7">
         <v>8</v>
       </c>
@@ -1743,7 +1698,7 @@
         <v>3600.06</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>10</v>
       </c>
@@ -1780,7 +1735,7 @@
         <v>3600.07</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C27" s="25" t="s">
         <v>6</v>
       </c>
@@ -1817,7 +1772,7 @@
         <v>3600.05</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="7"/>
@@ -1832,11 +1787,11 @@
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="38" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="9">
         <v>432</v>
       </c>
@@ -1870,16 +1825,16 @@
         <v>3278.08</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D33" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1899,7 +1854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>30</v>
       </c>
@@ -1919,7 +1874,7 @@
         <v>46.330662940689052</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>60</v>
       </c>
@@ -1939,7 +1894,7 @@
         <v>48.198767362802464</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>90</v>
       </c>
@@ -1959,7 +1914,7 @@
         <v>37.814658234562941</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>120</v>
       </c>
@@ -1979,7 +1934,7 @@
         <v>32.832377821034832</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="10" t="s">
         <v>6</v>
       </c>
@@ -1999,14 +1954,14 @@
         <v>41.294116589772372</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
@@ -2014,7 +1969,7 @@
       <c r="R41"/>
       <c r="S41"/>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
@@ -2022,14 +1977,14 @@
       <c r="R42"/>
       <c r="S42"/>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C43" s="36" t="s">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
@@ -2037,9 +1992,9 @@
       <c r="R43"/>
       <c r="S43"/>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
@@ -2057,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -2081,9 +2036,9 @@
       <c r="T44"/>
       <c r="U44"/>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
@@ -2101,7 +2056,7 @@
         <v>1.51</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>45</v>
@@ -2128,7 +2083,7 @@
       <c r="T45"/>
       <c r="U45"/>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
@@ -2169,7 +2124,7 @@
       <c r="T46"/>
       <c r="U46"/>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>47</v>
       </c>
@@ -2210,7 +2165,7 @@
       <c r="T47"/>
       <c r="U47"/>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>69</v>
       </c>
@@ -2251,7 +2206,7 @@
       <c r="T48"/>
       <c r="U48"/>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>55</v>
       </c>
@@ -2292,7 +2247,7 @@
       <c r="T49"/>
       <c r="U49"/>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2333,7 +2288,7 @@
       <c r="T50"/>
       <c r="U50"/>
     </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="P51"/>
@@ -2343,9 +2298,9 @@
       <c r="T51"/>
       <c r="U51"/>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>45</v>
@@ -2363,7 +2318,7 @@
         <v>426.32</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>45</v>
@@ -2390,7 +2345,7 @@
       <c r="T52"/>
       <c r="U52"/>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2431,7 +2386,7 @@
       <c r="T53"/>
       <c r="U53"/>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2472,7 +2427,7 @@
       <c r="T54"/>
       <c r="U54"/>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>69</v>
       </c>
@@ -2513,7 +2468,7 @@
       <c r="T55"/>
       <c r="U55"/>
     </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2554,7 +2509,7 @@
       <c r="T56"/>
       <c r="U56"/>
     </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
         <v>49</v>
@@ -2597,7 +2552,7 @@
       <c r="T57"/>
       <c r="U57"/>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
@@ -2605,7 +2560,7 @@
       <c r="R58"/>
       <c r="S58"/>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
@@ -2617,16 +2572,16 @@
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D61" s="36" t="s">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D61" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
@@ -2644,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2662,9 +2617,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>45</v>
@@ -2682,7 +2637,7 @@
         <v>1.51</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>45</v>
@@ -2703,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D64" s="1" t="s">
         <v>71</v>
       </c>
@@ -2738,7 +2693,7 @@
         <v>0.12999999999999989</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
         <v>72</v>
       </c>
@@ -2773,9 +2728,9 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>45</v>
@@ -2793,7 +2748,7 @@
         <v>426.32</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>45</v>
@@ -2814,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D68" s="1" t="s">
         <v>71</v>
       </c>
@@ -2849,7 +2804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="s">
         <v>72</v>
@@ -2888,17 +2843,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2913,34 +2868,34 @@
       <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2957,7 +2912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>30</v>
       </c>
@@ -2974,7 +2929,7 @@
         <v>0.13404166666666675</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>60</v>
       </c>
@@ -2991,7 +2946,7 @@
         <v>522.76872916666673</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>90</v>
       </c>
@@ -3008,7 +2963,7 @@
         <v>931.22206250000033</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>120</v>
       </c>
@@ -3025,7 +2980,7 @@
         <v>2635.3811833333357</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
@@ -3042,47 +2997,47 @@
         <v>1117.2591323529416</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F11" s="36" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
       <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
@@ -3123,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3164,7 +3119,7 @@
         <v>2635.3811833333357</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3160,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3246,7 +3201,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -3287,7 +3242,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3328,7 +3283,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -3369,7 +3324,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
@@ -3410,7 +3365,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -3451,7 +3406,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
@@ -3492,7 +3447,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -3533,7 +3488,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -3574,7 +3529,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3615,7 +3570,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>26</v>
       </c>
@@ -3659,28 +3614,28 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="36" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="J29" s="36" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="J29" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="O29" s="45" t="s">
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="O29" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
@@ -3724,7 +3679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>30</v>
       </c>
@@ -3765,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>60</v>
       </c>
@@ -3809,7 +3764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>90</v>
       </c>
@@ -3853,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>120</v>
       </c>
@@ -3897,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
@@ -3941,10 +3896,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H37"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C38" s="15" t="s">
         <v>35</v>
       </c>
@@ -3953,7 +3908,7 @@
       <c r="G38" s="15"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
@@ -3977,7 +3932,7 @@
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>30</v>
       </c>
@@ -4000,7 +3955,7 @@
         <v>7.5698111046603698</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>60</v>
       </c>
@@ -4023,7 +3978,7 @@
         <v>7.8707690582973688</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>90</v>
       </c>
@@ -4046,7 +4001,7 @@
         <v>5.5256123276715732</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>120</v>
       </c>
@@ -4069,7 +4024,7 @@
         <v>9.9622804902977506</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>6</v>
       </c>
@@ -4092,7 +4047,7 @@
         <v>7.8633042596474354</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -4101,7 +4056,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -4110,17 +4065,17 @@
       <c r="H46"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C47" s="36" t="s">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>36</v>
       </c>
@@ -4144,7 +4099,7 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>30</v>
       </c>
@@ -4167,7 +4122,7 @@
         <v>15.396225975580412</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>60</v>
       </c>
@@ -4190,7 +4145,7 @@
         <v>19.177508365394605</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>90</v>
       </c>
@@ -4213,7 +4168,7 @@
         <v>16.074508589590039</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>120</v>
       </c>
@@ -4236,7 +4191,7 @@
         <v>12.173866179589924</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>6</v>
       </c>
@@ -4259,18 +4214,18 @@
         <v>14.730156739835408</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="36" t="s">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>8</v>
@@ -4288,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>8</v>
@@ -4306,9 +4261,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>45</v>
@@ -4326,7 +4281,7 @@
         <v>0.13</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>45</v>
@@ -4347,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>46</v>
       </c>
@@ -4382,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>47</v>
       </c>
@@ -4417,7 +4372,7 @@
         <v>1.999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>48</v>
       </c>
@@ -4452,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>49</v>
       </c>
@@ -4487,9 +4442,9 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>45</v>
@@ -4507,7 +4462,7 @@
         <v>58.75</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>45</v>
@@ -4533,7 +4488,7 @@
       <c r="S63"/>
       <c r="T63"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>46</v>
       </c>
@@ -4573,7 +4528,7 @@
       <c r="S64"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>47</v>
       </c>
@@ -4613,7 +4568,7 @@
       <c r="S65"/>
       <c r="T65"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>48</v>
       </c>
@@ -4653,7 +4608,7 @@
       <c r="S66"/>
       <c r="T66"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
         <v>49</v>
@@ -4695,23 +4650,23 @@
       <c r="S67"/>
       <c r="T67"/>
     </row>
-    <row r="69" spans="2:20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="42" t="s">
+    <row r="69" spans="2:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="44"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="44" t="s">
+      <c r="F70" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G70" s="44"/>
-    </row>
-    <row r="71" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="43"/>
+      <c r="G70" s="43"/>
+    </row>
+    <row r="71" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="42"/>
       <c r="C71" s="3" t="s">
         <v>57</v>
       </c>
@@ -4726,9 +4681,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="35" t="s">
-        <v>80</v>
+    <row r="72" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C72" s="1">
         <v>98</v>
@@ -4744,9 +4699,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="35" t="s">
-        <v>81</v>
+    <row r="73" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C73" s="1">
         <v>98</v>
@@ -4762,9 +4717,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="35" t="s">
-        <v>82</v>
+    <row r="74" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="1">
         <v>115</v>
@@ -4780,9 +4735,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="35" t="s">
-        <v>83</v>
+    <row r="75" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="C75" s="1">
         <v>144</v>
@@ -4798,9 +4753,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="35" t="s">
-        <v>84</v>
+    <row r="76" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="C76" s="1">
         <v>143</v>
@@ -4816,9 +4771,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="35" t="s">
-        <v>85</v>
+    <row r="77" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="C77" s="1">
         <v>108</v>
@@ -4834,9 +4789,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="35" t="s">
-        <v>86</v>
+    <row r="78" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="C78" s="1">
         <v>144</v>
@@ -4852,9 +4807,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="35" t="s">
-        <v>87</v>
+    <row r="79" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="C79" s="1">
         <v>122</v>
@@ -4870,9 +4825,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="2:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C80" s="10">
         <v>129</v>
@@ -4888,15 +4843,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="35"/>
+    <row r="81" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="31"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="19"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4904,22 +4859,22 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="42" t="s">
+    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="44"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="44" t="s">
+      <c r="F83" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G83" s="44"/>
-    </row>
-    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="43"/>
+      <c r="G83" s="43"/>
+    </row>
+    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="42"/>
       <c r="C84" s="3" t="s">
         <v>57</v>
       </c>
@@ -4934,9 +4889,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="35" t="s">
-        <v>80</v>
+    <row r="85" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C85" s="1">
         <v>98</v>
@@ -4952,9 +4907,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="35" t="s">
-        <v>81</v>
+    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C86" s="1">
         <v>98</v>
@@ -4970,9 +4925,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="35" t="s">
-        <v>82</v>
+    <row r="87" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C87" s="1">
         <v>115</v>
@@ -4988,9 +4943,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="35" t="s">
-        <v>83</v>
+    <row r="88" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="C88" s="1">
         <v>144</v>
@@ -5006,9 +4961,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="35" t="s">
-        <v>84</v>
+    <row r="89" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="C89" s="1">
         <v>143</v>
@@ -5024,9 +4979,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="35" t="s">
-        <v>85</v>
+    <row r="90" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="C90" s="1">
         <v>108</v>
@@ -5042,9 +4997,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="35" t="s">
-        <v>86</v>
+    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="C91" s="1">
         <v>144</v>
@@ -5060,9 +5015,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="35" t="s">
-        <v>87</v>
+    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="C92" s="1">
         <v>122</v>
@@ -5078,27 +5033,27 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="49">
+    <row r="93" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="33">
         <v>129</v>
       </c>
-      <c r="D93" s="49">
+      <c r="D93" s="33">
         <v>120</v>
       </c>
-      <c r="E93" s="50"/>
-      <c r="F93" s="49">
+      <c r="E93" s="34"/>
+      <c r="F93" s="33">
         <v>129</v>
       </c>
-      <c r="G93" s="49">
+      <c r="G93" s="33">
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C94" s="10">
         <v>114</v>
@@ -5114,29 +5069,34 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="2:7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="2:7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C47:H47"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="F83:G83"/>
@@ -5149,1020 +5109,9 @@
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="F70:G70"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C47:H47"/>
     <mergeCell ref="B55:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585565A1-0F82-4FC8-A9B6-B7F94B40656F}">
-  <dimension ref="B3:Q38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7">
-        <v>27</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>3.5040740740740728</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22">
-        <v>154.14814814814815</v>
-      </c>
-      <c r="I6" s="22">
-        <v>6.9378652156377285E-2</v>
-      </c>
-      <c r="J6" s="22">
-        <v>2.6944444444444446</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7">
-        <v>27</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>4.5877777777777764</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30">
-        <v>173.55555555555554</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0.17322182033309158</v>
-      </c>
-      <c r="J7" s="30">
-        <v>3.7000000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="7">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7">
-        <v>27</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>6.0418518518518525</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
-        <v>181.18518518518519</v>
-      </c>
-      <c r="I8" s="30">
-        <v>9.9069958518162596E-2</v>
-      </c>
-      <c r="J8" s="30">
-        <v>4.8114814814814801</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="7">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7">
-        <v>27</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>9.2396296296296292</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30">
-        <v>190.62962962962962</v>
-      </c>
-      <c r="I9" s="30">
-        <v>0.10850674753328447</v>
-      </c>
-      <c r="J9" s="30">
-        <v>5.8337037037037032</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9">
-        <v>108</v>
-      </c>
-      <c r="D10" s="27">
-        <v>108</v>
-      </c>
-      <c r="E10" s="31">
-        <v>0</v>
-      </c>
-      <c r="F10" s="31">
-        <v>5.8433333333333319</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31">
-        <v>174.87962962962962</v>
-      </c>
-      <c r="I10" s="31">
-        <v>0.11254429463522897</v>
-      </c>
-      <c r="J10" s="31">
-        <v>4.2599074074074066</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7">
-        <v>27</v>
-      </c>
-      <c r="E15" s="25">
-        <v>154</v>
-      </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
-        <v>3.5040740740740728</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="7">
-        <v>9</v>
-      </c>
-      <c r="J15" s="25">
-        <v>161.33333333333334</v>
-      </c>
-      <c r="K15" s="22">
-        <v>38.409999999999997</v>
-      </c>
-      <c r="L15" s="24">
-        <v>2408.94</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="7">
-        <v>11</v>
-      </c>
-      <c r="O15" s="25">
-        <v>159.55555555555554</v>
-      </c>
-      <c r="P15" s="22">
-        <v>19.760000000000002</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>2245.3000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <v>27</v>
-      </c>
-      <c r="D16" s="7">
-        <v>27</v>
-      </c>
-      <c r="E16" s="25">
-        <v>173.25925925925927</v>
-      </c>
-      <c r="F16" s="30">
-        <v>0</v>
-      </c>
-      <c r="G16" s="30">
-        <v>4.5877777777777764</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="7">
-        <v>9</v>
-      </c>
-      <c r="J16" s="25">
-        <v>182.81481481481481</v>
-      </c>
-      <c r="K16" s="22">
-        <v>40.72</v>
-      </c>
-      <c r="L16" s="24">
-        <v>2427.8200000000002</v>
-      </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="7">
-        <v>9</v>
-      </c>
-      <c r="O16" s="25">
-        <v>179.44444444444446</v>
-      </c>
-      <c r="P16" s="22">
-        <v>25.5</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>2402.0100000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="7">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5">
-        <v>27</v>
-      </c>
-      <c r="D17" s="7">
-        <v>27</v>
-      </c>
-      <c r="E17" s="25">
-        <v>181.03703703703704</v>
-      </c>
-      <c r="F17" s="30">
-        <v>0</v>
-      </c>
-      <c r="G17" s="30">
-        <v>6.0418518518518525</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="7">
-        <v>8</v>
-      </c>
-      <c r="J17" s="25">
-        <v>192.03703703703704</v>
-      </c>
-      <c r="K17" s="22">
-        <v>42.68</v>
-      </c>
-      <c r="L17" s="24">
-        <v>2570.56</v>
-      </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="7">
-        <v>9</v>
-      </c>
-      <c r="O17" s="25">
-        <v>187.5185185185185</v>
-      </c>
-      <c r="P17" s="22">
-        <v>29.48</v>
-      </c>
-      <c r="Q17" s="22">
-        <v>2403.62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="7">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7">
-        <v>27</v>
-      </c>
-      <c r="E18" s="25">
-        <v>190.37037037037038</v>
-      </c>
-      <c r="F18" s="30">
-        <v>0</v>
-      </c>
-      <c r="G18" s="30">
-        <v>9.2396296296296292</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="7">
-        <v>8</v>
-      </c>
-      <c r="J18" s="25">
-        <v>201.40740740740742</v>
-      </c>
-      <c r="K18" s="22">
-        <v>45.23</v>
-      </c>
-      <c r="L18" s="24">
-        <v>2703.77</v>
-      </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="7">
-        <v>9</v>
-      </c>
-      <c r="O18" s="25">
-        <v>197.7037037037037</v>
-      </c>
-      <c r="P18" s="22">
-        <v>30.96</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>2474.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9">
-        <v>108</v>
-      </c>
-      <c r="D19" s="27">
-        <v>108</v>
-      </c>
-      <c r="E19" s="8">
-        <v>174.66666666666666</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31">
-        <v>5.8433333333333319</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="27">
-        <v>34</v>
-      </c>
-      <c r="J19" s="8">
-        <v>184.39814814814815</v>
-      </c>
-      <c r="K19" s="33">
-        <v>41.76</v>
-      </c>
-      <c r="L19" s="29">
-        <v>2527.77</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="27">
-        <v>38</v>
-      </c>
-      <c r="O19" s="8">
-        <v>181.05555555555554</v>
-      </c>
-      <c r="P19" s="33">
-        <v>26.43</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>2381.36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5">
-        <v>27</v>
-      </c>
-      <c r="D24" s="7">
-        <v>27</v>
-      </c>
-      <c r="E24" s="25">
-        <v>154</v>
-      </c>
-      <c r="F24" s="22">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
-        <v>3.5040740740740728</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="7">
-        <v>9</v>
-      </c>
-      <c r="J24" s="25">
-        <v>154.14814814814815</v>
-      </c>
-      <c r="K24" s="22">
-        <v>37.180465147297937</v>
-      </c>
-      <c r="L24" s="24">
-        <v>2407.2971851851853</v>
-      </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="7">
-        <v>11</v>
-      </c>
-      <c r="O24" s="25">
-        <v>154.14814814814815</v>
-      </c>
-      <c r="P24" s="22">
-        <v>18.115370308223689</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>2237.681592592593</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="7">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5">
-        <v>27</v>
-      </c>
-      <c r="D25" s="7">
-        <v>27</v>
-      </c>
-      <c r="E25" s="25">
-        <v>173.25925925925927</v>
-      </c>
-      <c r="F25" s="30">
-        <v>0</v>
-      </c>
-      <c r="G25" s="30">
-        <v>4.5877777777777764</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="7">
-        <v>9</v>
-      </c>
-      <c r="J25" s="25">
-        <v>173.5185185185185</v>
-      </c>
-      <c r="K25" s="22">
-        <v>38.650431576991025</v>
-      </c>
-      <c r="L25" s="24">
-        <v>2417.3645555555554</v>
-      </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="7">
-        <v>9</v>
-      </c>
-      <c r="O25" s="25">
-        <v>173.5185185185185</v>
-      </c>
-      <c r="P25" s="22">
-        <v>23.984876637552702</v>
-      </c>
-      <c r="Q25" s="22">
-        <v>2401.8547037037038</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5">
-        <v>27</v>
-      </c>
-      <c r="D26" s="7">
-        <v>27</v>
-      </c>
-      <c r="E26" s="25">
-        <v>181.03703703703704</v>
-      </c>
-      <c r="F26" s="30">
-        <v>0</v>
-      </c>
-      <c r="G26" s="30">
-        <v>6.0418518518518525</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="7">
-        <v>8</v>
-      </c>
-      <c r="J26" s="25">
-        <v>181.11111111111111</v>
-      </c>
-      <c r="K26" s="22">
-        <v>40.866802536020387</v>
-      </c>
-      <c r="L26" s="24">
-        <v>2554.1497037037038</v>
-      </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="7">
-        <v>9</v>
-      </c>
-      <c r="O26" s="25">
-        <v>181.11111111111111</v>
-      </c>
-      <c r="P26" s="22">
-        <v>28.063436652610132</v>
-      </c>
-      <c r="Q26" s="22">
-        <v>2402.9064074074072</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="7">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5">
-        <v>27</v>
-      </c>
-      <c r="D27" s="7">
-        <v>27</v>
-      </c>
-      <c r="E27" s="25">
-        <v>190.37037037037038</v>
-      </c>
-      <c r="F27" s="30">
-        <v>0</v>
-      </c>
-      <c r="G27" s="30">
-        <v>9.2396296296296292</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="7">
-        <v>8</v>
-      </c>
-      <c r="J27" s="25">
-        <v>190.62962962962962</v>
-      </c>
-      <c r="K27" s="22">
-        <v>43.504342205146884</v>
-      </c>
-      <c r="L27" s="24">
-        <v>2686.0387407407406</v>
-      </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="7">
-        <v>9</v>
-      </c>
-      <c r="O27" s="25">
-        <v>190.62962962962962</v>
-      </c>
-      <c r="P27" s="22">
-        <v>29.426982502452869</v>
-      </c>
-      <c r="Q27" s="22">
-        <v>2449.4641851851852</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="9">
-        <v>108</v>
-      </c>
-      <c r="D28" s="27">
-        <v>108</v>
-      </c>
-      <c r="E28" s="8">
-        <v>174.66666666666666</v>
-      </c>
-      <c r="F28" s="31">
-        <v>0</v>
-      </c>
-      <c r="G28" s="31">
-        <v>5.8433333333333319</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="27">
-        <v>34</v>
-      </c>
-      <c r="J28" s="8">
-        <v>174.85185185185185</v>
-      </c>
-      <c r="K28" s="33">
-        <v>40.050510366364058</v>
-      </c>
-      <c r="L28" s="29">
-        <v>2516.2125462962936</v>
-      </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="27">
-        <v>38</v>
-      </c>
-      <c r="O28" s="8">
-        <v>174.85185185185185</v>
-      </c>
-      <c r="P28" s="33">
-        <v>24.897666525209846</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>2372.9767222222222</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="4">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5">
-        <v>27</v>
-      </c>
-      <c r="D34" s="7">
-        <v>27</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="22">
-        <v>3.5040740740740728</v>
-      </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="7">
-        <v>27</v>
-      </c>
-      <c r="I34" s="21">
-        <v>0</v>
-      </c>
-      <c r="J34" s="21">
-        <v>0.8266666666666671</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="7">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5">
-        <v>27</v>
-      </c>
-      <c r="D35" s="7">
-        <v>27</v>
-      </c>
-      <c r="E35" s="30">
-        <v>0</v>
-      </c>
-      <c r="F35" s="30">
-        <v>4.5877777777777764</v>
-      </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="7">
-        <v>27</v>
-      </c>
-      <c r="I35" s="21">
-        <v>0</v>
-      </c>
-      <c r="J35" s="21">
-        <v>0.86703703703703705</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <v>8</v>
-      </c>
-      <c r="C36" s="5">
-        <v>27</v>
-      </c>
-      <c r="D36" s="7">
-        <v>27</v>
-      </c>
-      <c r="E36" s="30">
-        <v>0</v>
-      </c>
-      <c r="F36" s="30">
-        <v>6.0418518518518525</v>
-      </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="7">
-        <v>27</v>
-      </c>
-      <c r="I36" s="21">
-        <v>0</v>
-      </c>
-      <c r="J36" s="21">
-        <v>1.2070370370370369</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="7">
-        <v>10</v>
-      </c>
-      <c r="C37" s="5">
-        <v>27</v>
-      </c>
-      <c r="D37" s="7">
-        <v>27</v>
-      </c>
-      <c r="E37" s="30">
-        <v>0</v>
-      </c>
-      <c r="F37" s="30">
-        <v>9.2396296296296292</v>
-      </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="7">
-        <v>27</v>
-      </c>
-      <c r="I37" s="21">
-        <v>0</v>
-      </c>
-      <c r="J37" s="21">
-        <v>3.1340740740740753</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="9">
-        <v>108</v>
-      </c>
-      <c r="D38" s="27">
-        <v>108</v>
-      </c>
-      <c r="E38" s="31">
-        <v>0</v>
-      </c>
-      <c r="F38" s="31">
-        <v>5.8433333333333319</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="27">
-        <v>108</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0</v>
-      </c>
-      <c r="J38" s="28">
-        <v>1.5087037037037041</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="I22:L22"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>